--- a/Optimization Example/tornado plot.xlsx
+++ b/Optimization Example/tornado plot.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/Optimization Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C1FDE0-4A8F-4363-BBA0-541E98665623}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBC3FAD-B78D-4F6C-9502-06B09A18C666}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="13050" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -288,7 +285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8877BBD4-0DB7-4997-B637-891FAF908584}" type="CELLRANGE">
+                    <a:fld id="{B894ED4F-89A4-40FB-9C38-AB3AE99E927C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -297,7 +294,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{46BDAE4A-FBA5-4490-ABEA-15BD33B5847F}" type="VALUE">
+                    <a:fld id="{A884E8C6-9C72-4801-99E1-292004F8AA41}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -330,7 +327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8295BA16-B90D-4440-AF6F-36A2215EADE8}" type="CELLRANGE">
+                    <a:fld id="{902DE296-94F4-4AB7-BE7C-ACFA98E6A6BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -339,7 +336,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0D820F65-EACB-4235-B1CF-EC2C3D4ADBBD}" type="VALUE">
+                    <a:fld id="{18A1580B-B3BC-430E-BC19-7CB1C3678491}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -372,7 +369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6F90F63-D4C8-4A56-B1E8-DB6C8B7B0273}" type="CELLRANGE">
+                    <a:fld id="{FC08B1FF-565E-4533-BBB0-BDF95A5C1B1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -381,7 +378,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7935F992-B17A-4816-9565-C36E861299D0}" type="VALUE">
+                    <a:fld id="{1BCA64D6-342D-40F7-8F32-FC84E153B870}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -414,7 +411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1339146C-2DBB-4D94-AF72-F5581A7D9BE1}" type="CELLRANGE">
+                    <a:fld id="{2C0E139F-BC31-4DFC-8E05-59705CC8B386}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -423,7 +420,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{06DE3B49-E129-42F4-900C-72F93AC79874}" type="VALUE">
+                    <a:fld id="{D722AF25-7F1B-431C-92B3-8F7F8F4A06B4}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -462,7 +459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ABCE4C0-B321-4330-84AA-A56ABC74FBB2}" type="CELLRANGE">
+                    <a:fld id="{4ED92122-79E7-4263-998D-16EEBFD5D959}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -471,7 +468,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{8EFA5A55-4FD2-4325-A9B8-651B84BF8C31}" type="VALUE">
+                    <a:fld id="{F5021EE9-1AE7-428B-8D7E-02EF99EEC950}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -503,7 +500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D75C7304-ACD5-4D73-9F55-015F19CC430B}" type="CELLRANGE">
+                    <a:fld id="{905B1E7C-C3F1-41FE-A827-C347246050D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -512,7 +509,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3CA32DA1-6498-4156-857B-DF2270DEECF3}" type="VALUE">
+                    <a:fld id="{C723B0C9-E442-44F7-81B0-EEF23A8726F4}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -630,22 +627,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.1020000040759035E-3</c:v>
+                  <c:v>4.7101762378277436E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98091082437081789</c:v>
+                  <c:v>1.1579203274531249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.203882125960154</c:v>
+                  <c:v>1.2051602062500217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1347784071962896</c:v>
+                  <c:v>1.1359831247382566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18156128420347345</c:v>
+                  <c:v>-1.3157626586299793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16006039833198066</c:v>
+                  <c:v>0.14263169427089106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +654,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.5</c:v>
+                    <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.9</c:v>
@@ -715,7 +712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{647F843C-0038-4E0D-B61A-856247C0FF35}" type="CELLRANGE">
+                    <a:fld id="{C6C59023-323B-4C3C-960F-75EF87F3C5D4}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -724,7 +721,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F8CA9CD2-367F-4467-B601-F9E62ED85353}" type="VALUE">
+                    <a:fld id="{A39AA4EB-1416-4D7F-8F95-7904B626E771}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -762,7 +759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F46A17E0-8119-4518-9795-9F2B417044BB}" type="CELLRANGE">
+                    <a:fld id="{940A957F-D715-4EA6-B96C-9DC37FA099AF}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -771,7 +768,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{C3E4E763-89A2-4BA7-BB5B-DA33A7580EB3}" type="VALUE">
+                    <a:fld id="{47EBA1D0-FD5E-4FF6-A20C-0BB1421D0F5F}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -803,7 +800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A426F525-D783-43F8-82FC-DF00FF458C59}" type="CELLRANGE">
+                    <a:fld id="{013A42BA-8697-438A-B6A7-4641566B41D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -812,7 +809,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{AF9352E0-3326-4B03-9DEF-9490AE04B3B4}" type="VALUE">
+                    <a:fld id="{9CD4CE3F-AEFD-4C32-A8E5-C99A74D4BA20}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -845,7 +842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{753F11F5-62F3-408A-9C0F-4B03AB58F6B0}" type="CELLRANGE">
+                    <a:fld id="{275C7BFA-1CC3-4FDF-A157-97F789112E18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -854,7 +851,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{947EEA76-F8A8-487A-B06D-A35DC66BED7C}" type="VALUE">
+                    <a:fld id="{6F3C732E-B80D-4DA7-9F7B-2283276DE788}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -893,7 +890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B0431D1-7E74-4251-86DC-C51E81A3AB05}" type="CELLRANGE">
+                    <a:fld id="{02F1FBB5-BAC7-424A-A353-C873B3AE2952}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -902,7 +899,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{95D93205-8859-468C-83B2-798A8541F19D}" type="VALUE">
+                    <a:fld id="{7C083CD0-B929-422C-A5EC-A24893880BE9}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -940,7 +937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A9110A4-6E47-43CB-B841-4F2335732E59}" type="CELLRANGE">
+                    <a:fld id="{5ED79184-DB13-47BC-BAA6-8828B15C3389}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -949,7 +946,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A95ABF37-0C36-421B-A4BC-688A0B568F98}" type="VALUE">
+                    <a:fld id="{B87481E5-A8CF-4DC9-BEEA-1291356C8543}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1066,22 +1063,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1351428710341587</c:v>
+                  <c:v>1.1346610643724158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1413030238887918</c:v>
+                  <c:v>1.1363479755091914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98109226858673682</c:v>
+                  <c:v>0.9821338279420786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1704803330924047</c:v>
+                  <c:v>1.1717229529562139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6935971235230234</c:v>
+                  <c:v>2.1600245595729239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8656047107986251</c:v>
+                  <c:v>2.823860313566771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,25 +1934,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="X2">
-            <v>9.1020000040759035E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2255,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3161,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>1.1351</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,11 +3180,11 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C19">
         <f>AVERAGE(B19,D19)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
         <v>1.3</v>
@@ -3214,10 +3192,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>9.1020000040759035E-3</v>
+        <v>4.7101762378277436E-3</v>
       </c>
       <c r="D20">
-        <v>1.1351428710341587</v>
+        <v>1.1346610643724158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,10 +3215,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0.98091082437081789</v>
+        <v>1.1579203274531249</v>
       </c>
       <c r="D22">
-        <v>1.1413030238887918</v>
+        <v>1.1363479755091914</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,10 +3238,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>1.203882125960154</v>
+        <v>1.2051602062500217</v>
       </c>
       <c r="D24">
-        <v>0.98109226858673682</v>
+        <v>0.9821338279420786</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,10 +3261,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>1.1347784071962896</v>
+        <v>1.1359831247382566</v>
       </c>
       <c r="D26">
-        <v>1.1704803330924047</v>
+        <v>1.1717229529562139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,10 +3284,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>-0.18156128420347345</v>
+        <v>-1.3157626586299793</v>
       </c>
       <c r="D28">
-        <v>3.6935971235230234</v>
+        <v>2.1600245595729239</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,10 +3307,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>0.16006039833198066</v>
+        <v>0.14263169427089106</v>
       </c>
       <c r="D30">
-        <v>2.8656047107986251</v>
+        <v>2.823860313566771</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization Example/tornado plot.xlsx
+++ b/Optimization Example/tornado plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/Optimization Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBC3FAD-B78D-4F6C-9502-06B09A18C666}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12C8752-967B-477F-8072-097C59D4E170}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="13050" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1950" windowWidth="25980" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Tm</t>
   </si>
   <si>
-    <t>rhoS</t>
-  </si>
-  <si>
-    <t>mPCM</t>
-  </si>
-  <si>
     <t>param_ 1</t>
   </si>
   <si>
@@ -131,6 +125,81 @@
   </si>
   <si>
     <t>Baseline Eff</t>
+  </si>
+  <si>
+    <t>efficiencies_ 1</t>
+  </si>
+  <si>
+    <t>efficiencies_ 2</t>
+  </si>
+  <si>
+    <t>efficiencies_ 3</t>
+  </si>
+  <si>
+    <t>efficiencies_ 4</t>
+  </si>
+  <si>
+    <t>efficiencies_ 5</t>
+  </si>
+  <si>
+    <t>efficiencies_ 6</t>
+  </si>
+  <si>
+    <t>efficiencies_ 7</t>
+  </si>
+  <si>
+    <t>efficiencies_ 8</t>
+  </si>
+  <si>
+    <t>efficiencies_ 9</t>
+  </si>
+  <si>
+    <t>efficiencies_10</t>
+  </si>
+  <si>
+    <t>efficiencies_11</t>
+  </si>
+  <si>
+    <t>efficiencies_12</t>
+  </si>
+  <si>
+    <t>efficiencies_13</t>
+  </si>
+  <si>
+    <t>efficiencies_14</t>
+  </si>
+  <si>
+    <t>efficiencies_15</t>
+  </si>
+  <si>
+    <t>efficiencies_16</t>
+  </si>
+  <si>
+    <t>efficiencies_17</t>
+  </si>
+  <si>
+    <t>efficiencies_18</t>
+  </si>
+  <si>
+    <t>efficiencies_19</t>
+  </si>
+  <si>
+    <t>efficiencies_20</t>
+  </si>
+  <si>
+    <t>efficiencies_21</t>
+  </si>
+  <si>
+    <t>efficiencies_22</t>
+  </si>
+  <si>
+    <t>rhoL</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Eff</t>
   </si>
 </sst>
 </file>
@@ -277,326 +346,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B894ED4F-89A4-40FB-9C38-AB3AE99E927C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{A884E8C6-9C72-4801-99E1-292004F8AA41}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{902DE296-94F4-4AB7-BE7C-ACFA98E6A6BC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{18A1580B-B3BC-430E-BC19-7CB1C3678491}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FC08B1FF-565E-4533-BBB0-BDF95A5C1B1F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{1BCA64D6-342D-40F7-8F32-FC84E153B870}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2C0E139F-BC31-4DFC-8E05-59705CC8B386}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{D722AF25-7F1B-431C-92B3-8F7F8F4A06B4}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.2477239750498319E-2"/>
-                  <c:y val="4.6407847114393233E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4ED92122-79E7-4263-998D-16EEBFD5D959}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{F5021EE9-1AE7-428B-8D7E-02EF99EEC950}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{905B1E7C-C3F1-41FE-A827-C347246050D8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{C723B0C9-E442-44F7-81B0-EEF23A8726F4}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$19,Sheet1!$A$21,Sheet1!$A$23,Sheet1!$A$25,Sheet1!$A$27,Sheet1!$A$29)</c:f>
+              <c:f>(Sheet1!$A$24,Sheet1!$A$26,Sheet1!$A$28,Sheet1!$A$30,Sheet1!$A$32,Sheet1!$A$34)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -612,68 +364,42 @@
                   <c:v>Tm</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>rhoS</c:v>
+                  <c:v>rhoL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mPCM</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$20,Sheet1!$B$22,Sheet1!$B$24,Sheet1!$B$26,Sheet1!$B$28,Sheet1!$B$30)</c:f>
+              <c:f>(Sheet1!$B$25,Sheet1!$B$27,Sheet1!$B$29,Sheet1!$B$31,Sheet1!$B$33,Sheet1!$B$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.7101762378277436E-3</c:v>
+                  <c:v>6.3194921314470548E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1579203274531249</c:v>
+                  <c:v>7.0944775618998007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2051602062500217</c:v>
+                  <c:v>8.9157214567219145E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1359831247382566</c:v>
+                  <c:v>7.9268180136319283E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3157626586299793</c:v>
+                  <c:v>8.3359087442968147E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14263169427089106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>(Sheet1!$B$19,Sheet1!$B$21,Sheet1!$B$23,Sheet1!$B$25,Sheet1!$B$27,Sheet1!$B$29)</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>0.3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.9</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>220</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>700</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-8697-452A-857B-3FF77A0CB2B6}"/>
             </c:ext>
@@ -698,341 +424,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.0690635828574403E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C6C59023-323B-4C3C-960F-75EF87F3C5D4}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{A39AA4EB-1416-4D7F-8F95-7904B626E771}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.5416201325951124E-2"/>
-                  <c:y val="7.1396687868295972E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{940A957F-D715-4EA6-B96C-9DC37FA099AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{47EBA1D0-FD5E-4FF6-A20C-0BB1421D0F5F}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{013A42BA-8697-438A-B6A7-4641566B41D6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{9CD4CE3F-AEFD-4C32-A8E5-C99A74D4BA20}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{275C7BFA-1CC3-4FDF-A157-97F789112E18}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{6F3C732E-B80D-4DA7-9F7B-2283276DE788}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.9911790869423892E-3"/>
-                  <c:y val="6.4257019081467553E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{02F1FBB5-BAC7-424A-A353-C873B3AE2952}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{7C083CD0-B929-422C-A5EC-A24893880BE9}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.9451484978182234E-2"/>
-                  <c:y val="-8.5676025441956752E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5ED79184-DB13-47BC-BAA6-8828B15C3389}" type="CELLRANGE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{B87481E5-A8CF-4DC9-BEEA-1291356C8543}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-8697-452A-857B-3FF77A0CB2B6}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$A$19,Sheet1!$A$21,Sheet1!$A$23,Sheet1!$A$25,Sheet1!$A$27,Sheet1!$A$29)</c:f>
+              <c:f>(Sheet1!$A$24,Sheet1!$A$26,Sheet1!$A$28,Sheet1!$A$30,Sheet1!$A$32,Sheet1!$A$34)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1048,68 +442,42 @@
                   <c:v>Tm</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>rhoS</c:v>
+                  <c:v>rhoL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mPCM</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$20,Sheet1!$D$22,Sheet1!$D$24,Sheet1!$D$26,Sheet1!$D$28,Sheet1!$D$30)</c:f>
+              <c:f>(Sheet1!$D$25,Sheet1!$D$27,Sheet1!$D$29,Sheet1!$D$31,Sheet1!$D$33,Sheet1!$D$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.1346610643724158</c:v>
+                  <c:v>8.09E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1363479755091914</c:v>
+                  <c:v>0.22084728071019147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9821338279420786</c:v>
+                  <c:v>6.9907923901296812E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1717229529562139</c:v>
+                  <c:v>8.1119312434338259E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1600245595729239</c:v>
+                  <c:v>1.1549408555549565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.823860313566771</c:v>
+                  <c:v>2.2384788207418427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>(Sheet1!$D$19,Sheet1!$D$21,Sheet1!$D$23,Sheet1!$D$25,Sheet1!$D$27,Sheet1!$D$29)</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>1.3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>280</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>1000</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-8697-452A-857B-3FF77A0CB2B6}"/>
             </c:ext>
@@ -1173,7 +541,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="478497616"/>
-        <c:crossesAt val="1.1351"/>
+        <c:crossesAt val="8.0900000000000014E-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1183,8 +551,8 @@
         <c:axId val="478497616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.7"/>
-          <c:min val="-1.5"/>
+          <c:max val="0.2"/>
+          <c:min val="-5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1897,16 +1265,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>753304</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82618</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>489503</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>20706</xdr:rowOff>
+      <xdr:colOff>290720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2231,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,1066 +1619,1147 @@
     <col min="33" max="45" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" t="s">
-        <v>28</v>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.53809523809523807</v>
+        <v>0.25238095238095237</v>
       </c>
       <c r="D2">
-        <v>0.57619047619047614</v>
+        <v>0.30476190476190479</v>
       </c>
       <c r="E2">
-        <v>0.61428571428571432</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="F2">
-        <v>0.65238095238095239</v>
+        <v>0.40952380952380951</v>
       </c>
       <c r="G2">
-        <v>0.69047619047619047</v>
+        <v>0.46190476190476193</v>
       </c>
       <c r="H2">
-        <v>0.72857142857142865</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="I2">
-        <v>0.76666666666666672</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J2">
-        <v>0.80476190476190479</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="K2">
-        <v>0.84285714285714286</v>
+        <v>0.67142857142857149</v>
       </c>
       <c r="L2">
+        <v>0.7238095238095239</v>
+      </c>
+      <c r="M2">
+        <v>0.77619047619047632</v>
+      </c>
+      <c r="N2">
+        <v>0.82857142857142851</v>
+      </c>
+      <c r="O2">
         <v>0.88095238095238093</v>
       </c>
-      <c r="M2">
-        <v>0.91904761904761911</v>
-      </c>
-      <c r="N2">
-        <v>0.95714285714285718</v>
-      </c>
-      <c r="O2">
-        <v>0.99523809523809526</v>
-      </c>
       <c r="P2">
-        <v>1.0333333333333334</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="Q2">
-        <v>1.0714285714285716</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="R2">
-        <v>1.1095238095238096</v>
+        <v>1.0380952380952382</v>
       </c>
       <c r="S2">
-        <v>1.1476190476190475</v>
+        <v>1.0904761904761906</v>
       </c>
       <c r="T2">
-        <v>1.1857142857142857</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="U2">
-        <v>1.2238095238095239</v>
+        <v>1.1952380952380952</v>
       </c>
       <c r="V2">
-        <v>1.2619047619047619</v>
+        <v>1.2476190476190476</v>
       </c>
       <c r="W2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0.994434259017001</v>
+        <v>6.3194921314470548E-2</v>
       </c>
       <c r="C3">
-        <v>1.0013573992231413</v>
+        <v>6.3755205564181947E-2</v>
       </c>
       <c r="D3">
-        <v>1.0082550525464502</v>
+        <v>6.4333898796624822E-2</v>
       </c>
       <c r="E3">
-        <v>1.0151273637269072</v>
+        <v>6.4932003173764713E-2</v>
       </c>
       <c r="F3">
-        <v>1.0219744802226771</v>
+        <v>6.5550597645163383E-2</v>
       </c>
       <c r="G3">
-        <v>1.0287965645641155</v>
+        <v>6.6190849056843998E-2</v>
       </c>
       <c r="H3">
-        <v>1.0355937560600781</v>
+        <v>6.685401982335068E-2</v>
       </c>
       <c r="I3">
-        <v>1.0423661928996677</v>
+        <v>6.7541479100532958E-2</v>
       </c>
       <c r="J3">
-        <v>1.0491140382106019</v>
+        <v>6.8254714524710061E-2</v>
       </c>
       <c r="K3">
-        <v>1.0558374135062254</v>
+        <v>6.8995346074592401E-2</v>
       </c>
       <c r="L3">
-        <v>1.0625364864202778</v>
+        <v>6.9765575521412992E-2</v>
       </c>
       <c r="M3">
-        <v>1.0692113766737033</v>
+        <v>7.0566475041597493E-2</v>
       </c>
       <c r="N3">
-        <v>1.0758622365729076</v>
+        <v>7.1400593871057655E-2</v>
       </c>
       <c r="O3">
-        <v>1.0824891987911998</v>
+        <v>7.2270264257661573E-2</v>
       </c>
       <c r="P3">
-        <v>1.08909241146137</v>
+        <v>7.3178057927112419E-2</v>
       </c>
       <c r="Q3">
-        <v>1.0956719953685741</v>
+        <v>7.4126819148345097E-2</v>
       </c>
       <c r="R3">
-        <v>1.1022281019823839</v>
+        <v>7.5119703628378165E-2</v>
       </c>
       <c r="S3">
-        <v>1.1087608591709706</v>
+        <v>7.6160224507838339E-2</v>
       </c>
       <c r="T3">
-        <v>1.1152704022786235</v>
+        <v>7.7252307056258226E-2</v>
       </c>
       <c r="U3">
-        <v>1.1217568621560152</v>
+        <v>7.8400354095450056E-2</v>
       </c>
       <c r="V3">
-        <v>1.128220367449623</v>
+        <v>7.9609324779020676E-2</v>
       </c>
       <c r="W3">
-        <v>1.1346610643724158</v>
+        <v>8.0884830088068141E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>0.86428571428571432</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="D4">
-        <v>0.82857142857142863</v>
+        <v>0.1276190476190476</v>
       </c>
       <c r="E4">
-        <v>0.79285714285714293</v>
+        <v>0.13142857142857142</v>
       </c>
       <c r="F4">
-        <v>0.75714285714285712</v>
+        <v>0.13523809523809524</v>
       </c>
       <c r="G4">
-        <v>0.72142857142857153</v>
+        <v>0.13904761904761906</v>
       </c>
       <c r="H4">
-        <v>0.68571428571428572</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I4">
-        <v>0.65</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="J4">
-        <v>0.61428571428571432</v>
+        <v>0.15047619047619049</v>
       </c>
       <c r="K4">
-        <v>0.57857142857142863</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="L4">
-        <v>0.54285714285714293</v>
+        <v>0.15809523809523809</v>
       </c>
       <c r="M4">
-        <v>0.50714285714285712</v>
+        <v>0.16190476190476191</v>
       </c>
       <c r="N4">
-        <v>0.47142857142857147</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="O4">
-        <v>0.43571428571428578</v>
+        <v>0.16952380952380952</v>
       </c>
       <c r="P4">
-        <v>0.4</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="Q4">
-        <v>0.36428571428571432</v>
+        <v>0.17714285714285716</v>
       </c>
       <c r="R4">
-        <v>0.32857142857142863</v>
+        <v>0.18095238095238098</v>
       </c>
       <c r="S4">
-        <v>0.29285714285714293</v>
+        <v>0.18476190476190477</v>
       </c>
       <c r="T4">
-        <v>0.25714285714285723</v>
+        <v>0.18857142857142858</v>
       </c>
       <c r="U4">
-        <v>0.22142857142857153</v>
+        <v>0.19238095238095237</v>
       </c>
       <c r="V4">
-        <v>0.18571428571428583</v>
+        <v>0.19619047619047619</v>
       </c>
       <c r="W4">
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>1.1579203274531249</v>
+        <v>7.0944775618998007E-2</v>
       </c>
       <c r="C5">
-        <v>1.1578819888730776</v>
+        <v>7.1836750709421138E-2</v>
       </c>
       <c r="D5">
-        <v>1.1578385292565341</v>
+        <v>7.2812038545708016E-2</v>
       </c>
       <c r="E5">
-        <v>1.1577889968190025</v>
+        <v>7.3880399114379935E-2</v>
       </c>
       <c r="F5">
-        <v>1.1577321773854272</v>
+        <v>7.5053398199523072E-2</v>
       </c>
       <c r="G5">
-        <v>1.1576665813615361</v>
+        <v>7.6344855880338361E-2</v>
       </c>
       <c r="H5">
-        <v>1.157590305555394</v>
+        <v>7.7771441204462513E-2</v>
       </c>
       <c r="I5">
-        <v>1.1575008524643886</v>
+        <v>7.9353473433707786E-2</v>
       </c>
       <c r="J5">
-        <v>1.1573950193032951</v>
+        <v>8.1116021285797785E-2</v>
       </c>
       <c r="K5">
-        <v>1.1572685180867075</v>
+        <v>8.3090442182741531E-2</v>
       </c>
       <c r="L5">
-        <v>1.1571155196716136</v>
+        <v>8.5316588678104377E-2</v>
       </c>
       <c r="M5">
-        <v>1.1569280353768066</v>
+        <v>8.7846057874844286E-2</v>
       </c>
       <c r="N5">
-        <v>1.1566947642547161</v>
+        <v>9.0747130478872839E-2</v>
       </c>
       <c r="O5">
-        <v>1.1563992819701048</v>
+        <v>9.411256428028722E-2</v>
       </c>
       <c r="P5">
-        <v>1.1560170046260767</v>
+        <v>9.8072458936711168E-2</v>
       </c>
       <c r="Q5">
-        <v>1.1555096849604551</v>
+        <v>0.10281670317139288</v>
       </c>
       <c r="R5">
-        <v>1.1548149311890374</v>
+        <v>0.10863698399916147</v>
       </c>
       <c r="S5">
-        <v>1.1538249165662473</v>
+        <v>0.11601294847779979</v>
       </c>
       <c r="T5">
-        <v>1.1523385451306929</v>
+        <v>0.12581261175890052</v>
       </c>
       <c r="U5">
-        <v>1.1499400012194154</v>
+        <v>0.13985379651652757</v>
       </c>
       <c r="V5">
-        <v>1.1456303723085453</v>
+        <v>0.16305673114861632</v>
       </c>
       <c r="W5">
-        <v>1.1363479755091914</v>
+        <v>0.22084728071019147</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
+        <v>210</v>
+      </c>
+      <c r="C6">
+        <v>213.33333333333334</v>
+      </c>
+      <c r="D6">
+        <v>216.66666666666666</v>
+      </c>
+      <c r="E6">
         <v>220</v>
       </c>
-      <c r="C6">
-        <v>222.85714285714286</v>
-      </c>
-      <c r="D6">
-        <v>225.71428571428572</v>
-      </c>
-      <c r="E6">
-        <v>228.57142857142858</v>
-      </c>
       <c r="F6">
-        <v>231.42857142857142</v>
+        <v>223.33333333333334</v>
       </c>
       <c r="G6">
-        <v>234.28571428571428</v>
+        <v>226.66666666666666</v>
       </c>
       <c r="H6">
-        <v>237.14285714285714</v>
+        <v>230</v>
       </c>
       <c r="I6">
+        <v>233.33333333333334</v>
+      </c>
+      <c r="J6">
+        <v>236.66666666666666</v>
+      </c>
+      <c r="K6">
         <v>240</v>
       </c>
-      <c r="J6">
-        <v>242.85714285714286</v>
-      </c>
-      <c r="K6">
-        <v>245.71428571428572</v>
-      </c>
       <c r="L6">
-        <v>248.57142857142858</v>
+        <v>243.33333333333334</v>
       </c>
       <c r="M6">
-        <v>251.42857142857144</v>
+        <v>246.66666666666669</v>
       </c>
       <c r="N6">
-        <v>254.28571428571428</v>
+        <v>250</v>
       </c>
       <c r="O6">
-        <v>257.14285714285717</v>
+        <v>253.33333333333334</v>
       </c>
       <c r="P6">
+        <v>256.66666666666669</v>
+      </c>
+      <c r="Q6">
         <v>260</v>
       </c>
-      <c r="Q6">
-        <v>262.85714285714289</v>
-      </c>
       <c r="R6">
-        <v>265.71428571428572</v>
+        <v>263.33333333333331</v>
       </c>
       <c r="S6">
-        <v>268.57142857142856</v>
+        <v>266.66666666666669</v>
       </c>
       <c r="T6">
-        <v>271.42857142857144</v>
+        <v>270</v>
       </c>
       <c r="U6">
-        <v>274.28571428571428</v>
+        <v>273.33333333333331</v>
       </c>
       <c r="V6">
-        <v>277.14285714285717</v>
+        <v>276.66666666666669</v>
       </c>
       <c r="W6">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>1.2051602062500217</v>
+        <v>8.9157214567219145E-2</v>
       </c>
       <c r="C7">
-        <v>1.192267620841311</v>
+        <v>8.8003314862727916E-2</v>
       </c>
       <c r="D7">
-        <v>1.179647960809332</v>
+        <v>8.6878901773228934E-2</v>
       </c>
       <c r="E7">
-        <v>1.1672926505167027</v>
+        <v>8.5782859311477E-2</v>
       </c>
       <c r="F7">
-        <v>1.1551934698776209</v>
+        <v>8.4714127104671175E-2</v>
       </c>
       <c r="G7">
-        <v>1.1433425361201437</v>
+        <v>8.3671696972701215E-2</v>
       </c>
       <c r="H7">
-        <v>1.1317322866596589</v>
+        <v>8.2654609755956732E-2</v>
       </c>
       <c r="I7">
-        <v>1.1203554630053505</v>
+        <v>8.1661952371718777E-2</v>
       </c>
       <c r="J7">
-        <v>1.1092050956276882</v>
+        <v>8.0692855080145454E-2</v>
       </c>
       <c r="K7">
-        <v>1.0982744897206582</v>
+        <v>7.9746488942644619E-2</v>
       </c>
       <c r="L7">
-        <v>1.0875572117976056</v>
+        <v>7.882206345702289E-2</v>
       </c>
       <c r="M7">
-        <v>1.0770470770643066</v>
+        <v>7.7918824355230398E-2</v>
       </c>
       <c r="N7">
-        <v>1.066738137517188</v>
+        <v>7.7036051550807061E-2</v>
       </c>
       <c r="O7">
-        <v>1.056624670718576</v>
+        <v>7.6173057224290727E-2</v>
       </c>
       <c r="P7">
-        <v>1.0467011692044594</v>
+        <v>7.5329184035888772E-2</v>
       </c>
       <c r="Q7">
-        <v>1.0369623304835753</v>
+        <v>7.450380345565201E-2</v>
       </c>
       <c r="R7">
-        <v>1.0274030475896572</v>
+        <v>7.3696314202236324E-2</v>
       </c>
       <c r="S7">
-        <v>1.0180184001514769</v>
+        <v>7.2906140782102127E-2</v>
       </c>
       <c r="T7">
-        <v>1.0088036459478735</v>
+        <v>7.2132732121693258E-2</v>
       </c>
       <c r="U7">
-        <v>0.99975421291731248</v>
+        <v>7.1375560285763404E-2</v>
       </c>
       <c r="V7">
-        <v>0.99086569159368798</v>
+        <v>7.063411927558573E-2</v>
       </c>
       <c r="W7">
-        <v>0.9821338279420786</v>
+        <v>6.9907923901296812E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>5.5</v>
       </c>
       <c r="C8">
-        <v>18.904761904761905</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="D8">
-        <v>19.80952380952381</v>
+        <v>6.8809523809523814</v>
       </c>
       <c r="E8">
-        <v>20.714285714285715</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="F8">
-        <v>21.61904761904762</v>
+        <v>8.2619047619047628</v>
       </c>
       <c r="G8">
-        <v>22.523809523809526</v>
+        <v>8.9523809523809526</v>
       </c>
       <c r="H8">
-        <v>23.428571428571431</v>
+        <v>9.6428571428571423</v>
       </c>
       <c r="I8">
-        <v>24.333333333333332</v>
+        <v>10.333333333333332</v>
       </c>
       <c r="J8">
-        <v>25.238095238095237</v>
+        <v>11.023809523809524</v>
       </c>
       <c r="K8">
-        <v>26.142857142857142</v>
+        <v>11.714285714285715</v>
       </c>
       <c r="L8">
-        <v>27.047619047619047</v>
+        <v>12.404761904761905</v>
       </c>
       <c r="M8">
-        <v>27.952380952380953</v>
+        <v>13.095238095238095</v>
       </c>
       <c r="N8">
-        <v>28.857142857142858</v>
+        <v>13.785714285714285</v>
       </c>
       <c r="O8">
-        <v>29.761904761904763</v>
+        <v>14.476190476190476</v>
       </c>
       <c r="P8">
-        <v>30.666666666666664</v>
+        <v>15.166666666666666</v>
       </c>
       <c r="Q8">
-        <v>31.571428571428569</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="R8">
-        <v>32.476190476190474</v>
+        <v>16.547619047619047</v>
       </c>
       <c r="S8">
-        <v>33.38095238095238</v>
+        <v>17.238095238095237</v>
       </c>
       <c r="T8">
-        <v>34.285714285714285</v>
+        <v>17.928571428571431</v>
       </c>
       <c r="U8">
-        <v>35.19047619047619</v>
+        <v>18.61904761904762</v>
       </c>
       <c r="V8">
-        <v>36.095238095238095</v>
+        <v>19.30952380952381</v>
       </c>
       <c r="W8">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>1.1359831247382566</v>
+        <v>7.9268180136319283E-2</v>
       </c>
       <c r="C9">
-        <v>1.137635510211535</v>
+        <v>7.9354411445079792E-2</v>
       </c>
       <c r="D9">
-        <v>1.139292709761798</v>
+        <v>7.9440830570349494E-2</v>
       </c>
       <c r="E9">
-        <v>1.1409547444578092</v>
+        <v>7.9527438126409347E-2</v>
       </c>
       <c r="F9">
-        <v>1.1426216354914545</v>
+        <v>7.9614234730221958E-2</v>
       </c>
       <c r="G9">
-        <v>1.1442934041786443</v>
+        <v>7.9701221001446318E-2</v>
       </c>
       <c r="H9">
-        <v>1.1459700719602199</v>
+        <v>7.9788397562452582E-2</v>
       </c>
       <c r="I9">
-        <v>1.1476516604028715</v>
+        <v>7.9875765038336793E-2</v>
       </c>
       <c r="J9">
-        <v>1.1493381912000622</v>
+        <v>7.996332405693593E-2</v>
       </c>
       <c r="K9">
-        <v>1.1510296861729621</v>
+        <v>8.0051075248842876E-2</v>
       </c>
       <c r="L9">
-        <v>1.1527261672713882</v>
+        <v>8.0139019247421645E-2</v>
       </c>
       <c r="M9">
-        <v>1.1544276565747533</v>
+        <v>8.0227156688822479E-2</v>
       </c>
       <c r="N9">
-        <v>1.1561341762930257</v>
+        <v>8.0315488211997368E-2</v>
       </c>
       <c r="O9">
-        <v>1.157845748767695</v>
+        <v>8.0404014458715298E-2</v>
       </c>
       <c r="P9">
-        <v>1.1595623964727457</v>
+        <v>8.0492736073577958E-2</v>
       </c>
       <c r="Q9">
-        <v>1.1612841420156428</v>
+        <v>8.0581653704035278E-2</v>
       </c>
       <c r="R9">
-        <v>1.1630110081383227</v>
+        <v>8.0670768000401238E-2</v>
       </c>
       <c r="S9">
-        <v>1.1647430177181954</v>
+        <v>8.0760079615869701E-2</v>
       </c>
       <c r="T9">
-        <v>1.1664801937691549</v>
+        <v>8.0849589206530362E-2</v>
       </c>
       <c r="U9">
-        <v>1.1682225594425975</v>
+        <v>8.093929743138481E-2</v>
       </c>
       <c r="V9">
-        <v>1.1699701380284515</v>
+        <v>8.1029204952362766E-2</v>
       </c>
       <c r="W9">
-        <v>1.1717229529562139</v>
+        <v>8.1119312434338259E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="C10">
-        <v>714.28571428571433</v>
+        <v>723.80952380952385</v>
       </c>
       <c r="D10">
-        <v>728.57142857142856</v>
+        <v>727.61904761904759</v>
       </c>
       <c r="E10">
+        <v>731.42857142857144</v>
+      </c>
+      <c r="F10">
+        <v>735.23809523809518</v>
+      </c>
+      <c r="G10">
+        <v>739.04761904761904</v>
+      </c>
+      <c r="H10">
         <v>742.85714285714289</v>
       </c>
-      <c r="F10">
-        <v>757.14285714285711</v>
-      </c>
-      <c r="G10">
-        <v>771.42857142857144</v>
-      </c>
-      <c r="H10">
-        <v>785.71428571428578</v>
-      </c>
       <c r="I10">
+        <v>746.66666666666663</v>
+      </c>
+      <c r="J10">
+        <v>750.47619047619048</v>
+      </c>
+      <c r="K10">
+        <v>754.28571428571433</v>
+      </c>
+      <c r="L10">
+        <v>758.09523809523807</v>
+      </c>
+      <c r="M10">
+        <v>761.90476190476193</v>
+      </c>
+      <c r="N10">
+        <v>765.71428571428567</v>
+      </c>
+      <c r="O10">
+        <v>769.52380952380952</v>
+      </c>
+      <c r="P10">
+        <v>773.33333333333337</v>
+      </c>
+      <c r="Q10">
+        <v>777.14285714285711</v>
+      </c>
+      <c r="R10">
+        <v>780.95238095238096</v>
+      </c>
+      <c r="S10">
+        <v>784.76190476190482</v>
+      </c>
+      <c r="T10">
+        <v>788.57142857142856</v>
+      </c>
+      <c r="U10">
+        <v>792.38095238095241</v>
+      </c>
+      <c r="V10">
+        <v>796.19047619047615</v>
+      </c>
+      <c r="W10">
         <v>800</v>
       </c>
-      <c r="J10">
-        <v>814.28571428571433</v>
-      </c>
-      <c r="K10">
-        <v>828.57142857142856</v>
-      </c>
-      <c r="L10">
-        <v>842.85714285714289</v>
-      </c>
-      <c r="M10">
-        <v>857.14285714285711</v>
-      </c>
-      <c r="N10">
-        <v>871.42857142857144</v>
-      </c>
-      <c r="O10">
-        <v>885.71428571428578</v>
-      </c>
-      <c r="P10">
-        <v>900</v>
-      </c>
-      <c r="Q10">
-        <v>914.28571428571433</v>
-      </c>
-      <c r="R10">
-        <v>928.57142857142856</v>
-      </c>
-      <c r="S10">
-        <v>942.85714285714289</v>
-      </c>
-      <c r="T10">
-        <v>957.14285714285711</v>
-      </c>
-      <c r="U10">
-        <v>971.42857142857144</v>
-      </c>
-      <c r="V10">
-        <v>985.71428571428578</v>
-      </c>
-      <c r="W10">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>-1.3157626586299793</v>
+        <v>8.3359087442968147E-3</v>
       </c>
       <c r="C11">
-        <v>-1.0228214301013721</v>
+        <v>8.8215547638096914E-3</v>
       </c>
       <c r="D11">
-        <v>-0.74837322861327482</v>
+        <v>9.3850744639083911E-3</v>
       </c>
       <c r="E11">
-        <v>-0.49116789903415475</v>
+        <v>1.0045965302733556E-2</v>
       </c>
       <c r="F11">
-        <v>-0.25005861975053278</v>
+        <v>1.0830825198977467E-2</v>
       </c>
       <c r="G11">
-        <v>-2.3991474029792698E-2</v>
+        <v>1.1776886302792281E-2</v>
       </c>
       <c r="H11">
-        <v>0.18800380418577806</v>
+        <v>1.2937874320802156E-2</v>
       </c>
       <c r="I11">
-        <v>0.38682206794687424</v>
+        <v>1.4394183133620522E-2</v>
       </c>
       <c r="J11">
-        <v>0.57329011432598098</v>
+        <v>1.6271534121146722E-2</v>
       </c>
       <c r="K11">
-        <v>0.74817327845801795</v>
+        <v>1.8777545513222329E-2</v>
       </c>
       <c r="L11">
-        <v>0.91218136715242104</v>
+        <v>2.2279484894826881E-2</v>
       </c>
       <c r="M11">
-        <v>1.0659740222418885</v>
+        <v>2.7487170606664748E-2</v>
       </c>
       <c r="N11">
-        <v>1.2101655937869589</v>
+        <v>3.5940133755619497E-2</v>
       </c>
       <c r="O11">
-        <v>1.3453295953057172</v>
+        <v>5.1496105002156269E-2</v>
       </c>
       <c r="P11">
-        <v>1.4720028071848257</v>
+        <v>8.5095336124799345E-2</v>
       </c>
       <c r="Q11">
-        <v>1.590689090283218</v>
+        <v>0.16170676605861073</v>
       </c>
       <c r="R11">
-        <v>1.7018629694947884</v>
+        <v>0.29265788882893273</v>
       </c>
       <c r="S11">
-        <v>1.8059730468404933</v>
+        <v>0.4529986367842474</v>
       </c>
       <c r="T11">
-        <v>1.9034453058105174</v>
+        <v>0.6242795710334077</v>
       </c>
       <c r="U11">
-        <v>1.9946863736702272</v>
+        <v>0.79978800713767639</v>
       </c>
       <c r="V11">
-        <v>2.0800868170536457</v>
+        <v>0.97703458955958733</v>
       </c>
       <c r="W11">
-        <v>2.1600245595729239</v>
+        <v>1.1549408555549565</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F12">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="G12">
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="H12">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J12">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="K12">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L12">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="M12">
+        <v>0.52380952380952372</v>
+      </c>
+      <c r="N12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O12">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="P12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q12">
+        <v>0.71428571428571419</v>
+      </c>
+      <c r="R12">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="S12">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="T12">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U12">
+        <v>0.90476190476190466</v>
+      </c>
+      <c r="V12">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>4.2223456769696476E-3</v>
+      </c>
+      <c r="D13">
+        <v>4.6330779625153957E-3</v>
+      </c>
+      <c r="E13">
+        <v>5.120158461496627E-3</v>
+      </c>
+      <c r="F13">
+        <v>5.7059751366279696E-3</v>
+      </c>
+      <c r="G13">
+        <v>6.4224337119315848E-3</v>
+      </c>
+      <c r="H13">
+        <v>7.3165602362603192E-3</v>
+      </c>
+      <c r="I13">
+        <v>8.4605553801920183E-3</v>
+      </c>
+      <c r="J13">
+        <v>9.971019337212339E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.2048732821471297E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.5069713390120915E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.9823267360204948E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.825751334162516E-2</v>
+      </c>
+      <c r="O13">
+        <v>4.645713986190983E-2</v>
+      </c>
+      <c r="P13">
+        <v>9.9090634077277862E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.25044051429393432</v>
+      </c>
+      <c r="R13">
+        <v>0.49210645778642326</v>
+      </c>
+      <c r="S13">
+        <v>0.77473912115368793</v>
+      </c>
+      <c r="T13">
+        <v>1.0866411235531874</v>
+      </c>
+      <c r="U13">
+        <v>1.4294191918272572</v>
+      </c>
+      <c r="V13">
+        <v>1.8096744869213235</v>
+      </c>
+      <c r="W13">
+        <v>2.2384788207418427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(B24,D24)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D24">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>6.3194921314470548E-2</v>
+      </c>
+      <c r="D25">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.12</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(B26,D26)</f>
+        <v>0.16</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>7.0944775618998007E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.22084728071019147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>3.0952380952380953</v>
-      </c>
-      <c r="D12">
-        <v>3.1904761904761907</v>
-      </c>
-      <c r="E12">
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="F12">
-        <v>3.3809523809523809</v>
-      </c>
-      <c r="G12">
-        <v>3.4761904761904763</v>
-      </c>
-      <c r="H12">
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="I12">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="J12">
-        <v>3.7619047619047619</v>
-      </c>
-      <c r="K12">
-        <v>3.8571428571428572</v>
-      </c>
-      <c r="L12">
-        <v>3.9523809523809526</v>
-      </c>
-      <c r="M12">
-        <v>4.0476190476190474</v>
-      </c>
-      <c r="N12">
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="O12">
-        <v>4.2380952380952381</v>
-      </c>
-      <c r="P12">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="Q12">
-        <v>4.4285714285714288</v>
-      </c>
-      <c r="R12">
-        <v>4.5238095238095237</v>
-      </c>
-      <c r="S12">
-        <v>4.6190476190476186</v>
-      </c>
-      <c r="T12">
-        <v>4.7142857142857144</v>
-      </c>
-      <c r="U12">
-        <v>4.8095238095238093</v>
-      </c>
-      <c r="V12">
-        <v>4.9047619047619051</v>
-      </c>
-      <c r="W12">
-        <v>5</v>
+      <c r="B28">
+        <v>210</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C34" si="0">AVERAGE(B28,D28)</f>
+        <v>245</v>
+      </c>
+      <c r="D28">
+        <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>0.14263169427089106</v>
-      </c>
-      <c r="C13">
-        <v>0.2290041708747039</v>
-      </c>
-      <c r="D13">
-        <v>0.34570038503384121</v>
-      </c>
-      <c r="E13">
-        <v>0.47856538273380833</v>
-      </c>
-      <c r="F13">
-        <v>0.61810024720944634</v>
-      </c>
-      <c r="G13">
-        <v>0.75984486057165224</v>
-      </c>
-      <c r="H13">
-        <v>0.90171530940025657</v>
-      </c>
-      <c r="I13">
-        <v>1.0427058902648156</v>
-      </c>
-      <c r="J13">
-        <v>1.1822837595366165</v>
-      </c>
-      <c r="K13">
-        <v>1.3201960616576855</v>
-      </c>
-      <c r="L13">
-        <v>1.4562437242718933</v>
-      </c>
-      <c r="M13">
-        <v>1.5903543902840556</v>
-      </c>
-      <c r="N13">
-        <v>1.7224850919400643</v>
-      </c>
-      <c r="O13">
-        <v>1.8526199935929795</v>
-      </c>
-      <c r="P13">
-        <v>1.9807600550123841</v>
-      </c>
-      <c r="Q13">
-        <v>2.1069171434986202</v>
-      </c>
-      <c r="R13">
-        <v>2.2311106101319842</v>
-      </c>
-      <c r="S13">
-        <v>2.353401354504709</v>
-      </c>
-      <c r="T13">
-        <v>2.4737764424403395</v>
-      </c>
-      <c r="U13">
-        <v>2.5922869901387324</v>
-      </c>
-      <c r="V13">
-        <v>2.7089691288565412</v>
-      </c>
-      <c r="W13">
-        <v>2.823860313566771</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>8.9157214567219145E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.9907923901296812E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>1.3</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5.5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>7.9268180136319283E-2</v>
+      </c>
+      <c r="D31">
+        <v>8.1119312434338259E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>720</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="D32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>8.3359087442968147E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.1549408555549565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="B19">
-        <v>0.3</v>
-      </c>
-      <c r="C19">
-        <f>AVERAGE(B19,D19)</f>
-        <v>0.8</v>
-      </c>
-      <c r="D19">
-        <v>1.3</v>
-      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>4.7101762378277436E-3</v>
-      </c>
-      <c r="D20">
-        <v>1.1346610643724158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0.9</v>
-      </c>
-      <c r="C21">
-        <f>AVERAGE(B21,D21)</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="D21">
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1.1579203274531249</v>
-      </c>
-      <c r="D22">
-        <v>1.1363479755091914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>220</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C29" si="0">AVERAGE(B23,D23)</f>
-        <v>250</v>
-      </c>
-      <c r="D23">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1.2051602062500217</v>
-      </c>
-      <c r="D24">
-        <v>0.9821338279420786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="D25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1.1359831247382566</v>
-      </c>
-      <c r="D26">
-        <v>1.1717229529562139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>700</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>-1.3157626586299793</v>
-      </c>
-      <c r="D28">
-        <v>2.1600245595729239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0.14263169427089106</v>
-      </c>
-      <c r="D30">
-        <v>2.823860313566771</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2.2384788207418427</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization Example/tornado plot.xlsx
+++ b/Optimization Example/tornado plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/Optimization Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12C8752-967B-477F-8072-097C59D4E170}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4863BA86-24F9-41AE-A915-C59034526CF9}"/>
   <bookViews>
     <workbookView xWindow="1590" yWindow="1950" windowWidth="25980" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Eff</t>
+  </si>
+  <si>
+    <t>Tornado plot</t>
   </si>
 </sst>
 </file>
@@ -232,8 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +558,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
-          <c:min val="-5.000000000000001E-2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1266,15 +1272,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>612913</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:colOff>438977</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>290720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:colOff>116784</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1601,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,6 +2593,15 @@
         <v>2.2384788207418427</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>30</v>
@@ -2763,6 +2778,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:E19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
